--- a/DataResult_P2.xlsx
+++ b/DataResult_P2.xlsx
@@ -2525,13 +2525,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>30787</xdr:colOff>
+      <xdr:colOff>30788</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>46181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76969</xdr:rowOff>
     </xdr:to>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
